--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="496">
   <si>
     <t>Path</t>
   </si>
@@ -869,6 +869,181 @@
     <t>Composition.author</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.author.assignedAuthor</t>
+  </si>
+  <si>
+    <t>DocumentReference.agent</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Composition.title</t>
+  </si>
+  <si>
+    <t>Human Readable name/title</t>
+  </si>
+  <si>
+    <t>Official human-readable label for the composition.</t>
+  </si>
+  <si>
+    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
+  </si>
+  <si>
+    <t>Digital Documentation of COVID-19 Certificate (DDCC)</t>
+  </si>
+  <si>
+    <t>./title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>DocumentReference.description, DocumentReference.content.attachment.title</t>
+  </si>
+  <si>
+    <t>Composition.confidentiality</t>
+  </si>
+  <si>
+    <t>As defined by affinity domain</t>
+  </si>
+  <si>
+    <t>The code specifying the level of confidentiality of the Composition.</t>
+  </si>
+  <si>
+    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
+  </si>
+  <si>
+    <t>Codes specifying the level of confidentiality of the composition.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.securityLabel</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Attests to accuracy of composition</t>
+  </si>
+  <si>
+    <t>A participant who has attested to the accuracy of the composition/document.</t>
+  </si>
+  <si>
+    <t>Only list each attester once.</t>
+  </si>
+  <si>
+    <t>Identifies responsibility for the accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.id</t>
+  </si>
+  <si>
+    <t>Composition.attester.extension</t>
+  </si>
+  <si>
+    <t>Composition.attester.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode</t>
+  </si>
+  <si>
+    <t>personal | professional | legal | official</t>
+  </si>
+  <si>
+    <t>The type of attestation the authenticator offers.</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority of the attestation.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>The way in which a person authenticated a composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>unique(./modeCode)</t>
+  </si>
+  <si>
+    <t>implied by .authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.time</t>
+  </si>
+  <si>
+    <t>When the composition was attested</t>
+  </si>
+  <si>
+    <t>When the composition was attested by the party.</t>
+  </si>
+  <si>
+    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
+  </si>
+  <si>
+    <t>./time[type="TS" and isNormalDatatype()]</t>
+  </si>
+  <si>
+    <t>.authenticator.time</t>
+  </si>
+  <si>
+    <t>Composition.attester.party</t>
+  </si>
+  <si>
     <t>Certificate issuer</t>
   </si>
   <si>
@@ -876,178 +1051,6 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what authored the composition</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.author.assignedAuthor</t>
-  </si>
-  <si>
-    <t>DocumentReference.agent</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Composition.title</t>
-  </si>
-  <si>
-    <t>Human Readable name/title</t>
-  </si>
-  <si>
-    <t>Official human-readable label for the composition.</t>
-  </si>
-  <si>
-    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>Digital Documentation of COVID-19 Certificate (DDCC)</t>
-  </si>
-  <si>
-    <t>./title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>DocumentReference.description, DocumentReference.content.attachment.title</t>
-  </si>
-  <si>
-    <t>Composition.confidentiality</t>
-  </si>
-  <si>
-    <t>As defined by affinity domain</t>
-  </si>
-  <si>
-    <t>The code specifying the level of confidentiality of the Composition.</t>
-  </si>
-  <si>
-    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
-  </si>
-  <si>
-    <t>Codes specifying the level of confidentiality of the composition.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.securityLabel</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Attests to accuracy of composition</t>
-  </si>
-  <si>
-    <t>A participant who has attested to the accuracy of the composition/document.</t>
-  </si>
-  <si>
-    <t>Only list each attester once.</t>
-  </si>
-  <si>
-    <t>Identifies responsibility for the accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.id</t>
-  </si>
-  <si>
-    <t>Composition.attester.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode</t>
-  </si>
-  <si>
-    <t>personal | professional | legal | official</t>
-  </si>
-  <si>
-    <t>The type of attestation the authenticator offers.</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority of the attestation.</t>
-  </si>
-  <si>
-    <t>The way in which a person authenticated a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>unique(./modeCode)</t>
-  </si>
-  <si>
-    <t>implied by .authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.time</t>
-  </si>
-  <si>
-    <t>When the composition was attested</t>
-  </si>
-  <si>
-    <t>When the composition was attested by the party.</t>
-  </si>
-  <si>
-    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
-  </si>
-  <si>
-    <t>./time[type="TS" and isNormalDatatype()]</t>
-  </si>
-  <si>
-    <t>.authenticator.time</t>
-  </si>
-  <si>
-    <t>Composition.attester.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
     <t>Who attested the composition</t>
   </si>
   <si>
@@ -1380,10 +1383,6 @@
   </si>
   <si>
     <t>Composition.section.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
-</t>
   </si>
   <si>
     <t>Who and/or what authored the section</t>
@@ -1558,32 +1557,6 @@
   <si>
     <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR)
 </t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 Test Section</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 Test Section lists the relvant tests done on the patient</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/DDCC-SectionCode-CodeSystem"/&gt;
-    &lt;code value="test"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>recovery</t>
-  </si>
-  <si>
-    <t>Recovery Status Section</t>
-  </si>
-  <si>
-    <t>Recovery Status Section lists the relvant recovery status details of the patient</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5337,7 +5310,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>272</v>
       </c>
@@ -5345,9 +5318,7 @@
       <c r="C32" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D32" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>53</v>
       </c>
@@ -5355,7 +5326,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5364,17 +5335,17 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5438,24 +5409,24 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5481,13 +5452,13 @@
         <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5498,7 +5469,7 @@
         <v>41</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5537,7 +5508,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>53</v>
@@ -5555,13 +5526,13 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5569,7 +5540,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5595,13 +5566,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5630,11 +5601,11 @@
         <v>137</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5651,7 +5622,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5669,21 +5640,21 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5691,13 +5662,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5706,19 +5677,19 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5767,7 +5738,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5785,13 +5756,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5799,7 +5770,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5911,7 +5882,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6025,11 +5996,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6051,10 +6022,10 @@
         <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>102</v>
@@ -6109,7 +6080,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6141,7 +6112,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6167,14 +6138,14 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6184,7 +6155,7 @@
         <v>41</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>41</v>
@@ -6223,7 +6194,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -6367,7 +6338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>329</v>
       </c>
@@ -6375,15 +6346,17 @@
       <c r="C41" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="E41" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6392,17 +6365,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6469,21 +6442,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6509,16 +6482,16 @@
         <v>174</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6567,7 +6540,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6585,13 +6558,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6599,7 +6572,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6622,16 +6595,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6681,7 +6654,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6699,13 +6672,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6713,7 +6686,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6825,7 +6798,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6939,11 +6912,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6965,10 +6938,10 @@
         <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>102</v>
@@ -7023,7 +6996,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7055,7 +7028,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7081,13 +7054,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7116,10 +7089,10 @@
         <v>137</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7137,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>53</v>
@@ -7155,13 +7128,13 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7169,7 +7142,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7192,13 +7165,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7249,7 +7222,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>53</v>
@@ -7267,13 +7240,13 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7281,7 +7254,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7304,19 +7277,19 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7365,7 +7338,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7383,13 +7356,13 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7397,7 +7370,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7509,7 +7482,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7623,11 +7596,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7649,10 +7622,10 @@
         <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>102</v>
@@ -7707,7 +7680,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7739,7 +7712,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7765,13 +7738,13 @@
         <v>143</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7800,10 +7773,10 @@
         <v>209</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7821,7 +7794,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7845,7 +7818,7 @@
         <v>201</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7853,7 +7826,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7879,10 +7852,10 @@
         <v>168</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7933,7 +7906,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7957,7 +7930,7 @@
         <v>269</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7965,7 +7938,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8077,7 +8050,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8191,14 +8164,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>42</v>
@@ -8219,13 +8192,13 @@
         <v>262</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8275,7 +8248,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8284,7 +8257,7 @@
         <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>65</v>
@@ -8293,7 +8266,7 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -8307,14 +8280,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>42</v>
@@ -8335,20 +8308,20 @@
         <v>262</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>41</v>
@@ -8393,7 +8366,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8402,7 +8375,7 @@
         <v>53</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>65</v>
@@ -8411,7 +8384,7 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
@@ -8425,7 +8398,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8448,13 +8421,13 @@
         <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8505,7 +8478,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8523,7 +8496,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>125</v>
@@ -8537,7 +8510,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8560,13 +8533,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8605,7 +8578,7 @@
         <v>41</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8615,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8627,16 +8600,16 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8647,7 +8620,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8759,7 +8732,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8873,11 +8846,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8899,10 +8872,10 @@
         <v>99</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>102</v>
@@ -8957,7 +8930,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8989,11 +8962,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9015,16 +8988,16 @@
         <v>55</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -9073,7 +9046,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9091,10 +9064,10 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9105,7 +9078,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9131,16 +9104,16 @@
         <v>143</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9168,10 +9141,10 @@
         <v>209</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9189,7 +9162,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9221,7 +9194,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9244,7 +9217,7 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>440</v>
+        <v>273</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>441</v>
@@ -9254,7 +9227,7 @@
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9303,7 +9276,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9321,16 +9294,16 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9358,7 +9331,7 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>444</v>
@@ -9818,7 +9791,7 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>471</v>
@@ -10125,7 +10098,7 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>489</v>
@@ -10139,7 +10112,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>490</v>
@@ -10152,7 +10125,7 @@
         <v>53</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>54</v>
@@ -10164,7 +10137,7 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>491</v>
@@ -10221,7 +10194,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10233,16 +10206,16 @@
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10253,7 +10226,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10365,7 +10338,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10479,11 +10452,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10505,10 +10478,10 @@
         <v>99</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>102</v>
@@ -10563,7 +10536,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10595,11 +10568,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10621,16 +10594,16 @@
         <v>55</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10679,7 +10652,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10697,10 +10670,10 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10711,7 +10684,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10737,16 +10710,16 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10774,10 +10747,10 @@
         <v>209</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10795,7 +10768,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10827,7 +10800,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10850,7 +10823,7 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>440</v>
+        <v>273</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>441</v>
@@ -10860,7 +10833,7 @@
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10909,7 +10882,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10927,16 +10900,16 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81">
@@ -11731,7 +11704,7 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>489</v>
@@ -11743,3220 +11716,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN115">
+  <autoFilter ref="A1:AN87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14966,7 +11727,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI114">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
@@ -1555,7 +1555,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunizationRecommendation)
 </t>
   </si>
 </sst>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
@@ -1545,8 +1545,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/DDCC-SectionCode-CodeSystem"/&gt;
-    &lt;code value="vaccination"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="11369-6"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
@@ -1555,7 +1555,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunizationRecommendation)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunization|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunizationRecommendation)
 </t>
   </si>
 </sst>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
@@ -690,7 +690,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1047,7 +1047,7 @@
     <t>Certificate issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -1551,11 +1551,11 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunization|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunizationRecommendation)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization|https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReferenceQR|https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunizationRecommendation)
 </t>
   </si>
 </sst>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCComposition.xlsx
@@ -690,7 +690,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1047,7 +1047,7 @@
     <t>Certificate issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -1551,11 +1551,11 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization|https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReferenceQR|https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunizationRecommendation)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
 </t>
   </si>
 </sst>
